--- a/info/metricas/NN/TANH/NN8.xlsx
+++ b/info/metricas/NN/TANH/NN8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1986.709228515625</v>
+        <v>0.8120891292976631</v>
       </c>
       <c r="C2" t="n">
-        <v>71424.2613783955</v>
+        <v>69874.88183432061</v>
       </c>
       <c r="D2" t="n">
-        <v>178.8285343736218</v>
+        <v>179.8001690687634</v>
       </c>
       <c r="E2" t="n">
-        <v>909164.2687554932</v>
+        <v>115.3745455932617</v>
       </c>
       <c r="F2" t="n">
-        <v>110.134914855957</v>
+        <v>914104.0595455932</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8102829869121294</v>
+        <v>1988.52392578125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8102870197172549</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.8128613392716602</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.686266968915331e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-73736.07934195593</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -521,34 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1973.467041015625</v>
+        <v>0.7860514465124468</v>
       </c>
       <c r="C3" t="n">
-        <v>77759.1312629679</v>
+        <v>75246.99126512678</v>
       </c>
       <c r="D3" t="n">
-        <v>182.537517434277</v>
+        <v>180.8636587858163</v>
       </c>
       <c r="E3" t="n">
-        <v>928020.7386358643</v>
+        <v>108.5652185058594</v>
       </c>
       <c r="F3" t="n">
-        <v>107.2747607421875</v>
+        <v>919510.8412670898</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7932278296484586</v>
+        <v>1987.50634765625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7936400763335821</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.7860988204168067</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.121455065840075e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-92926.7250422107</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -557,34 +579,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1912.521484375</v>
+        <v>0.7934551058698665</v>
       </c>
       <c r="C4" t="n">
-        <v>74512.39130096605</v>
+        <v>73993.66185341655</v>
       </c>
       <c r="D4" t="n">
-        <v>181.0120865696533</v>
+        <v>179.3907870802741</v>
       </c>
       <c r="E4" t="n">
-        <v>920265.4481201172</v>
+        <v>107.2619424438477</v>
       </c>
       <c r="F4" t="n">
-        <v>109.6511486816406</v>
+        <v>912022.7615161133</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8053074615838477</v>
+        <v>1989.65640625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8054757919491377</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>0.7935133210486585</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.919571074660256e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-93354.22286878469</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -593,34 +621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1881.438842773438</v>
+        <v>0.8234995955198066</v>
       </c>
       <c r="C5" t="n">
-        <v>74174.96526707907</v>
+        <v>69596.91914192752</v>
       </c>
       <c r="D5" t="n">
-        <v>181.1017843756387</v>
+        <v>177.0647969757488</v>
       </c>
       <c r="E5" t="n">
-        <v>920721.4717657471</v>
+        <v>107.7610122680664</v>
       </c>
       <c r="F5" t="n">
-        <v>107.0457418823242</v>
+        <v>900197.427824707</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8097654488818135</v>
+        <v>1958.902099609375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8102401550602569</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>0.8235091913494688</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.840658267114987e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-83543.82787450061</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -629,34 +663,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1970.06640625</v>
+        <v>0.7963120177951954</v>
       </c>
       <c r="C6" t="n">
-        <v>67904.4887233073</v>
+        <v>74784.46473123958</v>
       </c>
       <c r="D6" t="n">
-        <v>174.0400970963308</v>
+        <v>180.3299590910154</v>
       </c>
       <c r="E6" t="n">
-        <v>884645.8135406495</v>
+        <v>108.2326953125</v>
       </c>
       <c r="F6" t="n">
-        <v>105.0599957275391</v>
+        <v>916617.1820596315</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8195404657182921</v>
+        <v>1982.630004882812</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8196503913102245</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.7987002242704244</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.598722278692718e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-98928.11911648669</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -665,34 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2001.6748046875</v>
+        <v>0.8012173816209129</v>
       </c>
       <c r="C7" t="n">
-        <v>76100.35436813848</v>
+        <v>74162.74505740213</v>
       </c>
       <c r="D7" t="n">
-        <v>181.8916646824937</v>
+        <v>178.6486746725547</v>
       </c>
       <c r="E7" t="n">
-        <v>924555.3315811157</v>
+        <v>103.4363092041016</v>
       </c>
       <c r="F7" t="n">
-        <v>110.503896484375</v>
+        <v>908071.2133605957</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8032356128183601</v>
+        <v>1976.387817382812</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8032358762563898</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.8013202323647368</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.125411776368903e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-108074.16834785</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -701,34 +747,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1947.854736328125</v>
+        <v>0.8100186719168947</v>
       </c>
       <c r="C8" t="n">
-        <v>65854.96651950416</v>
+        <v>72104.31957716821</v>
       </c>
       <c r="D8" t="n">
-        <v>176.0063339175161</v>
+        <v>175.8496900133324</v>
       </c>
       <c r="E8" t="n">
-        <v>894640.1953027344</v>
+        <v>102.4408154296875</v>
       </c>
       <c r="F8" t="n">
-        <v>115.153076171875</v>
+        <v>893843.9743377685</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8088377696121533</v>
+        <v>1968.244750976562</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8089604975380233</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>0.8101920859708081</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.351581129527531e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-46108.40022826917</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -737,34 +789,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1985.350341796875</v>
+        <v>0.8159989417054567</v>
       </c>
       <c r="C9" t="n">
-        <v>71105.02987674686</v>
+        <v>69449.57735582639</v>
       </c>
       <c r="D9" t="n">
-        <v>179.0447891226346</v>
+        <v>175.3056665494155</v>
       </c>
       <c r="E9" t="n">
-        <v>910084.6631103515</v>
+        <v>104.115380859375</v>
       </c>
       <c r="F9" t="n">
-        <v>113.5497961425781</v>
+        <v>891078.7030706787</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7987777345337334</v>
+        <v>1978.757080078125</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7988204374502358</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>0.8162152246504293</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.935300629004582e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-90423.94485410962</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -773,34 +831,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1962.84912109375</v>
+        <v>0.800691503835798</v>
       </c>
       <c r="C10" t="n">
-        <v>72105.96909687495</v>
+        <v>75429.71306700895</v>
       </c>
       <c r="D10" t="n">
-        <v>178.9559526414738</v>
+        <v>180.3953933352587</v>
       </c>
       <c r="E10" t="n">
-        <v>909633.1072766113</v>
+        <v>104.5569348144531</v>
       </c>
       <c r="F10" t="n">
-        <v>106.9519470214844</v>
+        <v>916949.7843231201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8035587795522028</v>
+        <v>1983.640380859375</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8035604704388403</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.8006932842423026</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.012926078791821e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-80246.73164395653</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
@@ -809,34 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1955.220615234375</v>
+        <v>0.7991569302267361</v>
       </c>
       <c r="C11" t="n">
-        <v>70629.52409051399</v>
+        <v>73423.82208247131</v>
       </c>
       <c r="D11" t="n">
-        <v>176.3345232481865</v>
+        <v>179.4292073370382</v>
       </c>
       <c r="E11" t="n">
-        <v>896308.3816705322</v>
+        <v>107.6389599609375</v>
       </c>
       <c r="F11" t="n">
-        <v>104.4897131347656</v>
+        <v>912038.660894165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8058245621822632</v>
+        <v>1986.750610351562</v>
       </c>
       <c r="H11" t="n">
-        <v>0.805987885272532</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>0.7991580026529962</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.981128068289507e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-58630.22017610011</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TANH8</t>
         </is>
       </c>
     </row>
